--- a/input/RESULTS5-2A-EnergyPlus-9.0.1.xlsx
+++ b/input/RESULTS5-2A-EnergyPlus-9.0.1.xlsx
@@ -1160,6 +1160,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2034,7 +2035,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2042,7 +2043,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2122,19 +2123,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2626,11 +2627,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E162" activeCellId="0" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -5191,31 +5192,41 @@
       <c r="B155" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C155" s="80"/>
+      <c r="C155" s="80" t="n">
+        <v>1664.34</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C156" s="83"/>
+      <c r="C156" s="83" t="n">
+        <v>438.24</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C157" s="83"/>
+      <c r="C157" s="83" t="n">
+        <v>1062.16</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C158" s="83"/>
+      <c r="C158" s="83" t="n">
+        <v>1370.48</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="85"/>
+      <c r="C159" s="85" t="n">
+        <v>967.28</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="38"/>
@@ -5239,25 +5250,33 @@
       <c r="B163" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C163" s="80"/>
+      <c r="C163" s="80" t="n">
+        <v>804.02</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C164" s="83"/>
+      <c r="C164" s="83" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="C165" s="83"/>
+      <c r="C165" s="83" t="n">
+        <v>1024.2</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C166" s="85"/>
+      <c r="C166" s="85" t="n">
+        <v>581.04</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="1"/>
@@ -5280,13 +5299,17 @@
       <c r="B170" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="C170" s="80"/>
+      <c r="C170" s="80" t="n">
+        <v>646.13</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C171" s="85"/>
+      <c r="C171" s="85" t="n">
+        <v>419.35</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="89" t="s">

--- a/input/RESULTS5-2A-EnergyPlus-9.0.1.xlsx
+++ b/input/RESULTS5-2A-EnergyPlus-9.0.1.xlsx
@@ -2035,7 +2035,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2043,7 +2043,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2123,19 +2123,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2627,11 +2627,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E162" activeCellId="0" sqref="E162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A327" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C330" activeCellId="0" sqref="C330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -8220,7 +8220,9 @@
       <c r="B330" s="40" t="n">
         <v>-50</v>
       </c>
-      <c r="C330" s="84"/>
+      <c r="C330" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D330" s="13"/>
       <c r="E330" s="13"/>
     </row>
@@ -8228,7 +8230,9 @@
       <c r="B331" s="40" t="n">
         <v>-49</v>
       </c>
-      <c r="C331" s="84"/>
+      <c r="C331" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D331" s="13"/>
       <c r="E331" s="13"/>
     </row>
@@ -8236,7 +8240,9 @@
       <c r="B332" s="40" t="n">
         <v>-48</v>
       </c>
-      <c r="C332" s="84"/>
+      <c r="C332" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
     </row>
@@ -8244,7 +8250,9 @@
       <c r="B333" s="40" t="n">
         <v>-47</v>
       </c>
-      <c r="C333" s="84"/>
+      <c r="C333" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D333" s="13"/>
       <c r="E333" s="13"/>
     </row>
@@ -8252,7 +8260,9 @@
       <c r="B334" s="40" t="n">
         <v>-46</v>
       </c>
-      <c r="C334" s="84"/>
+      <c r="C334" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D334" s="13"/>
       <c r="E334" s="13"/>
     </row>
@@ -8260,7 +8270,9 @@
       <c r="B335" s="40" t="n">
         <v>-45</v>
       </c>
-      <c r="C335" s="84"/>
+      <c r="C335" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D335" s="13"/>
       <c r="E335" s="13"/>
     </row>
@@ -8268,7 +8280,9 @@
       <c r="B336" s="40" t="n">
         <v>-44</v>
       </c>
-      <c r="C336" s="84"/>
+      <c r="C336" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D336" s="13"/>
       <c r="E336" s="13"/>
     </row>
@@ -8276,7 +8290,9 @@
       <c r="B337" s="40" t="n">
         <v>-43</v>
       </c>
-      <c r="C337" s="84"/>
+      <c r="C337" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D337" s="13"/>
       <c r="E337" s="13"/>
     </row>
@@ -8284,7 +8300,9 @@
       <c r="B338" s="40" t="n">
         <v>-42</v>
       </c>
-      <c r="C338" s="84"/>
+      <c r="C338" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D338" s="13"/>
       <c r="E338" s="13"/>
     </row>
@@ -8292,7 +8310,9 @@
       <c r="B339" s="40" t="n">
         <v>-41</v>
       </c>
-      <c r="C339" s="84"/>
+      <c r="C339" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D339" s="13"/>
       <c r="E339" s="13"/>
     </row>
@@ -8300,7 +8320,9 @@
       <c r="B340" s="40" t="n">
         <v>-40</v>
       </c>
-      <c r="C340" s="84"/>
+      <c r="C340" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D340" s="13"/>
       <c r="E340" s="13"/>
     </row>
@@ -8308,7 +8330,9 @@
       <c r="B341" s="40" t="n">
         <v>-39</v>
       </c>
-      <c r="C341" s="84"/>
+      <c r="C341" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D341" s="13"/>
       <c r="E341" s="13"/>
     </row>
@@ -8316,7 +8340,9 @@
       <c r="B342" s="40" t="n">
         <v>-38</v>
       </c>
-      <c r="C342" s="84"/>
+      <c r="C342" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D342" s="13"/>
       <c r="E342" s="13"/>
     </row>
@@ -8324,7 +8350,9 @@
       <c r="B343" s="40" t="n">
         <v>-37</v>
       </c>
-      <c r="C343" s="84"/>
+      <c r="C343" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D343" s="13"/>
       <c r="E343" s="13"/>
     </row>
@@ -8332,7 +8360,9 @@
       <c r="B344" s="40" t="n">
         <v>-36</v>
       </c>
-      <c r="C344" s="84"/>
+      <c r="C344" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D344" s="13"/>
       <c r="E344" s="13"/>
     </row>
@@ -8340,7 +8370,9 @@
       <c r="B345" s="40" t="n">
         <v>-35</v>
       </c>
-      <c r="C345" s="84"/>
+      <c r="C345" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D345" s="13"/>
       <c r="E345" s="13"/>
     </row>
@@ -8348,7 +8380,9 @@
       <c r="B346" s="40" t="n">
         <v>-34</v>
       </c>
-      <c r="C346" s="84"/>
+      <c r="C346" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D346" s="13"/>
       <c r="E346" s="13"/>
     </row>
@@ -8356,7 +8390,9 @@
       <c r="B347" s="40" t="n">
         <v>-33</v>
       </c>
-      <c r="C347" s="84"/>
+      <c r="C347" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D347" s="13"/>
       <c r="E347" s="13"/>
     </row>
@@ -8364,7 +8400,9 @@
       <c r="B348" s="40" t="n">
         <v>-32</v>
       </c>
-      <c r="C348" s="84"/>
+      <c r="C348" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
@@ -8372,7 +8410,9 @@
       <c r="B349" s="40" t="n">
         <v>-31</v>
       </c>
-      <c r="C349" s="84"/>
+      <c r="C349" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D349" s="13"/>
       <c r="E349" s="13"/>
     </row>
@@ -8380,7 +8420,9 @@
       <c r="B350" s="40" t="n">
         <v>-30</v>
       </c>
-      <c r="C350" s="84"/>
+      <c r="C350" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D350" s="13"/>
       <c r="E350" s="13"/>
     </row>
@@ -8388,7 +8430,9 @@
       <c r="B351" s="40" t="n">
         <v>-29</v>
       </c>
-      <c r="C351" s="84"/>
+      <c r="C351" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D351" s="13"/>
       <c r="E351" s="13"/>
     </row>
@@ -8396,7 +8440,9 @@
       <c r="B352" s="40" t="n">
         <v>-28</v>
       </c>
-      <c r="C352" s="84"/>
+      <c r="C352" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D352" s="13"/>
       <c r="E352" s="13"/>
     </row>
@@ -8404,7 +8450,9 @@
       <c r="B353" s="40" t="n">
         <v>-27</v>
       </c>
-      <c r="C353" s="84"/>
+      <c r="C353" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D353" s="13"/>
       <c r="E353" s="13"/>
     </row>
@@ -8412,7 +8460,9 @@
       <c r="B354" s="40" t="n">
         <v>-26</v>
       </c>
-      <c r="C354" s="84"/>
+      <c r="C354" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D354" s="13"/>
       <c r="E354" s="13"/>
     </row>
@@ -8420,7 +8470,9 @@
       <c r="B355" s="40" t="n">
         <v>-25</v>
       </c>
-      <c r="C355" s="84"/>
+      <c r="C355" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D355" s="13"/>
       <c r="E355" s="13"/>
     </row>
@@ -8428,7 +8480,9 @@
       <c r="B356" s="40" t="n">
         <v>-24</v>
       </c>
-      <c r="C356" s="84"/>
+      <c r="C356" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D356" s="13"/>
       <c r="E356" s="13"/>
     </row>
@@ -8436,7 +8490,9 @@
       <c r="B357" s="40" t="n">
         <v>-23</v>
       </c>
-      <c r="C357" s="84"/>
+      <c r="C357" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D357" s="13"/>
       <c r="E357" s="13"/>
     </row>
@@ -8444,7 +8500,9 @@
       <c r="B358" s="40" t="n">
         <v>-22</v>
       </c>
-      <c r="C358" s="84"/>
+      <c r="C358" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D358" s="13"/>
       <c r="E358" s="13"/>
     </row>
@@ -8452,7 +8510,9 @@
       <c r="B359" s="40" t="n">
         <v>-21</v>
       </c>
-      <c r="C359" s="84"/>
+      <c r="C359" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D359" s="13"/>
       <c r="E359" s="13"/>
     </row>
@@ -8460,7 +8520,9 @@
       <c r="B360" s="40" t="n">
         <v>-20</v>
       </c>
-      <c r="C360" s="84"/>
+      <c r="C360" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D360" s="13"/>
       <c r="E360" s="13"/>
     </row>
@@ -8468,7 +8530,9 @@
       <c r="B361" s="40" t="n">
         <v>-19</v>
       </c>
-      <c r="C361" s="84"/>
+      <c r="C361" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D361" s="13"/>
       <c r="E361" s="13"/>
     </row>
@@ -8476,7 +8540,9 @@
       <c r="B362" s="40" t="n">
         <v>-18</v>
       </c>
-      <c r="C362" s="84"/>
+      <c r="C362" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D362" s="13"/>
       <c r="E362" s="13"/>
     </row>
@@ -8484,7 +8550,9 @@
       <c r="B363" s="40" t="n">
         <v>-17</v>
       </c>
-      <c r="C363" s="84"/>
+      <c r="C363" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D363" s="13"/>
       <c r="E363" s="13"/>
     </row>
@@ -8492,7 +8560,9 @@
       <c r="B364" s="40" t="n">
         <v>-16</v>
       </c>
-      <c r="C364" s="84"/>
+      <c r="C364" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D364" s="13"/>
       <c r="E364" s="13"/>
     </row>
@@ -8500,7 +8570,9 @@
       <c r="B365" s="40" t="n">
         <v>-15</v>
       </c>
-      <c r="C365" s="84"/>
+      <c r="C365" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D365" s="13"/>
       <c r="E365" s="13"/>
     </row>
@@ -8508,7 +8580,9 @@
       <c r="B366" s="40" t="n">
         <v>-14</v>
       </c>
-      <c r="C366" s="84"/>
+      <c r="C366" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D366" s="13"/>
       <c r="E366" s="13"/>
     </row>
@@ -8516,7 +8590,9 @@
       <c r="B367" s="40" t="n">
         <v>-13</v>
       </c>
-      <c r="C367" s="84"/>
+      <c r="C367" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D367" s="13"/>
       <c r="E367" s="13"/>
     </row>
@@ -8524,7 +8600,9 @@
       <c r="B368" s="40" t="n">
         <v>-12</v>
       </c>
-      <c r="C368" s="84"/>
+      <c r="C368" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D368" s="13"/>
       <c r="E368" s="13"/>
     </row>
@@ -8532,7 +8610,9 @@
       <c r="B369" s="40" t="n">
         <v>-11</v>
       </c>
-      <c r="C369" s="84"/>
+      <c r="C369" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D369" s="13"/>
       <c r="E369" s="13"/>
     </row>
@@ -8540,7 +8620,9 @@
       <c r="B370" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="C370" s="84"/>
+      <c r="C370" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
@@ -8548,7 +8630,9 @@
       <c r="B371" s="40" t="n">
         <v>-9</v>
       </c>
-      <c r="C371" s="84"/>
+      <c r="C371" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
     </row>
@@ -8556,7 +8640,9 @@
       <c r="B372" s="40" t="n">
         <v>-8</v>
       </c>
-      <c r="C372" s="84"/>
+      <c r="C372" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D372" s="13"/>
       <c r="E372" s="13"/>
     </row>
@@ -8564,7 +8650,9 @@
       <c r="B373" s="40" t="n">
         <v>-7</v>
       </c>
-      <c r="C373" s="84"/>
+      <c r="C373" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D373" s="13"/>
       <c r="E373" s="13"/>
     </row>
@@ -8572,7 +8660,9 @@
       <c r="B374" s="40" t="n">
         <v>-6</v>
       </c>
-      <c r="C374" s="84"/>
+      <c r="C374" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D374" s="13"/>
       <c r="E374" s="13"/>
     </row>
@@ -8580,7 +8670,9 @@
       <c r="B375" s="40" t="n">
         <v>-5</v>
       </c>
-      <c r="C375" s="84"/>
+      <c r="C375" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D375" s="13"/>
       <c r="E375" s="13"/>
     </row>
@@ -8588,7 +8680,9 @@
       <c r="B376" s="40" t="n">
         <v>-4</v>
       </c>
-      <c r="C376" s="84"/>
+      <c r="C376" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D376" s="13"/>
       <c r="E376" s="13"/>
     </row>
@@ -8596,7 +8690,9 @@
       <c r="B377" s="40" t="n">
         <v>-3</v>
       </c>
-      <c r="C377" s="84"/>
+      <c r="C377" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D377" s="13"/>
       <c r="E377" s="13"/>
     </row>
@@ -8604,7 +8700,9 @@
       <c r="B378" s="40" t="n">
         <v>-2</v>
       </c>
-      <c r="C378" s="84"/>
+      <c r="C378" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D378" s="13"/>
       <c r="E378" s="13"/>
     </row>
@@ -8612,7 +8710,9 @@
       <c r="B379" s="40" t="n">
         <v>-1</v>
       </c>
-      <c r="C379" s="84"/>
+      <c r="C379" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D379" s="13"/>
       <c r="E379" s="13"/>
     </row>
@@ -8620,7 +8720,9 @@
       <c r="B380" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C380" s="84"/>
+      <c r="C380" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D380" s="13"/>
       <c r="E380" s="13"/>
     </row>
@@ -8628,7 +8730,9 @@
       <c r="B381" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="C381" s="84"/>
+      <c r="C381" s="84" t="n">
+        <v>4</v>
+      </c>
       <c r="D381" s="13"/>
       <c r="E381" s="13"/>
     </row>
@@ -8636,7 +8740,9 @@
       <c r="B382" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C382" s="84"/>
+      <c r="C382" s="84" t="n">
+        <v>4</v>
+      </c>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
     </row>
@@ -8644,7 +8750,9 @@
       <c r="B383" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="C383" s="84"/>
+      <c r="C383" s="84" t="n">
+        <v>20</v>
+      </c>
       <c r="D383" s="13"/>
       <c r="E383" s="13"/>
     </row>
@@ -8652,7 +8760,9 @@
       <c r="B384" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="C384" s="84"/>
+      <c r="C384" s="84" t="n">
+        <v>21</v>
+      </c>
       <c r="D384" s="13"/>
       <c r="E384" s="13"/>
     </row>
@@ -8660,7 +8770,9 @@
       <c r="B385" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="C385" s="84"/>
+      <c r="C385" s="84" t="n">
+        <v>39</v>
+      </c>
       <c r="D385" s="13"/>
       <c r="E385" s="13"/>
     </row>
@@ -8668,7 +8780,9 @@
       <c r="B386" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="C386" s="84"/>
+      <c r="C386" s="84" t="n">
+        <v>51</v>
+      </c>
       <c r="D386" s="13"/>
       <c r="E386" s="13"/>
     </row>
@@ -8676,7 +8790,9 @@
       <c r="B387" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="C387" s="84"/>
+      <c r="C387" s="84" t="n">
+        <v>63</v>
+      </c>
       <c r="D387" s="13"/>
       <c r="E387" s="13"/>
     </row>
@@ -8684,7 +8800,9 @@
       <c r="B388" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C388" s="84"/>
+      <c r="C388" s="84" t="n">
+        <v>71</v>
+      </c>
       <c r="D388" s="13"/>
       <c r="E388" s="13"/>
     </row>
@@ -8692,7 +8810,9 @@
       <c r="B389" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C389" s="84"/>
+      <c r="C389" s="84" t="n">
+        <v>83</v>
+      </c>
       <c r="D389" s="13"/>
       <c r="E389" s="13"/>
     </row>
@@ -8700,7 +8820,9 @@
       <c r="B390" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="C390" s="84"/>
+      <c r="C390" s="84" t="n">
+        <v>128</v>
+      </c>
       <c r="D390" s="13"/>
       <c r="E390" s="13"/>
     </row>
@@ -8708,7 +8830,9 @@
       <c r="B391" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="C391" s="84"/>
+      <c r="C391" s="84" t="n">
+        <v>164</v>
+      </c>
       <c r="D391" s="13"/>
       <c r="E391" s="13"/>
     </row>
@@ -8716,7 +8840,9 @@
       <c r="B392" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="C392" s="84"/>
+      <c r="C392" s="84" t="n">
+        <v>218</v>
+      </c>
       <c r="D392" s="13"/>
       <c r="E392" s="13"/>
     </row>
@@ -8724,7 +8850,9 @@
       <c r="B393" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="C393" s="84"/>
+      <c r="C393" s="84" t="n">
+        <v>185</v>
+      </c>
       <c r="D393" s="13"/>
       <c r="E393" s="13"/>
     </row>
@@ -8732,7 +8860,9 @@
       <c r="B394" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="C394" s="84"/>
+      <c r="C394" s="84" t="n">
+        <v>197</v>
+      </c>
       <c r="D394" s="13"/>
       <c r="E394" s="13"/>
     </row>
@@ -8740,7 +8870,9 @@
       <c r="B395" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="C395" s="84"/>
+      <c r="C395" s="84" t="n">
+        <v>253</v>
+      </c>
       <c r="D395" s="13"/>
       <c r="E395" s="13"/>
     </row>
@@ -8748,7 +8880,9 @@
       <c r="B396" s="40" t="n">
         <v>16</v>
       </c>
-      <c r="C396" s="84"/>
+      <c r="C396" s="84" t="n">
+        <v>269</v>
+      </c>
       <c r="D396" s="13"/>
       <c r="E396" s="13"/>
     </row>
@@ -8756,7 +8890,9 @@
       <c r="B397" s="40" t="n">
         <v>17</v>
       </c>
-      <c r="C397" s="84"/>
+      <c r="C397" s="84" t="n">
+        <v>241</v>
+      </c>
       <c r="D397" s="13"/>
       <c r="E397" s="13"/>
     </row>
@@ -8764,7 +8900,9 @@
       <c r="B398" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="C398" s="84"/>
+      <c r="C398" s="84" t="n">
+        <v>312</v>
+      </c>
       <c r="D398" s="13"/>
       <c r="E398" s="13"/>
     </row>
@@ -8772,7 +8910,9 @@
       <c r="B399" s="40" t="n">
         <v>19</v>
       </c>
-      <c r="C399" s="84"/>
+      <c r="C399" s="84" t="n">
+        <v>321</v>
+      </c>
       <c r="D399" s="13"/>
       <c r="E399" s="13"/>
     </row>
@@ -8780,7 +8920,9 @@
       <c r="B400" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="C400" s="84"/>
+      <c r="C400" s="84" t="n">
+        <v>337</v>
+      </c>
       <c r="D400" s="13"/>
       <c r="E400" s="13"/>
     </row>
@@ -8788,7 +8930,9 @@
       <c r="B401" s="40" t="n">
         <v>21</v>
       </c>
-      <c r="C401" s="84"/>
+      <c r="C401" s="84" t="n">
+        <v>305</v>
+      </c>
       <c r="D401" s="13"/>
       <c r="E401" s="13"/>
     </row>
@@ -8796,7 +8940,9 @@
       <c r="B402" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="C402" s="84"/>
+      <c r="C402" s="84" t="n">
+        <v>324</v>
+      </c>
       <c r="D402" s="13"/>
       <c r="E402" s="13"/>
     </row>
@@ -8804,7 +8950,9 @@
       <c r="B403" s="40" t="n">
         <v>23</v>
       </c>
-      <c r="C403" s="84"/>
+      <c r="C403" s="84" t="n">
+        <v>302</v>
+      </c>
       <c r="D403" s="13"/>
       <c r="E403" s="13"/>
     </row>
@@ -8812,7 +8960,9 @@
       <c r="B404" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="C404" s="84"/>
+      <c r="C404" s="84" t="n">
+        <v>276</v>
+      </c>
       <c r="D404" s="13"/>
       <c r="E404" s="13"/>
     </row>
@@ -8820,7 +8970,9 @@
       <c r="B405" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="C405" s="84"/>
+      <c r="C405" s="84" t="n">
+        <v>296</v>
+      </c>
       <c r="D405" s="13"/>
       <c r="E405" s="13"/>
     </row>
@@ -8828,7 +8980,9 @@
       <c r="B406" s="40" t="n">
         <v>26</v>
       </c>
-      <c r="C406" s="84"/>
+      <c r="C406" s="84" t="n">
+        <v>283</v>
+      </c>
       <c r="D406" s="13"/>
       <c r="E406" s="13"/>
     </row>
@@ -8836,7 +8990,9 @@
       <c r="B407" s="40" t="n">
         <v>27</v>
       </c>
-      <c r="C407" s="84"/>
+      <c r="C407" s="84" t="n">
+        <v>313</v>
+      </c>
       <c r="D407" s="13"/>
       <c r="E407" s="13"/>
     </row>
@@ -8844,7 +9000,9 @@
       <c r="B408" s="40" t="n">
         <v>28</v>
       </c>
-      <c r="C408" s="84"/>
+      <c r="C408" s="84" t="n">
+        <v>302</v>
+      </c>
       <c r="D408" s="13"/>
       <c r="E408" s="13"/>
     </row>
@@ -8852,7 +9010,9 @@
       <c r="B409" s="40" t="n">
         <v>29</v>
       </c>
-      <c r="C409" s="84"/>
+      <c r="C409" s="84" t="n">
+        <v>326</v>
+      </c>
       <c r="D409" s="13"/>
       <c r="E409" s="13"/>
     </row>
@@ -8860,7 +9020,9 @@
       <c r="B410" s="40" t="n">
         <v>30</v>
       </c>
-      <c r="C410" s="84"/>
+      <c r="C410" s="84" t="n">
+        <v>356</v>
+      </c>
       <c r="D410" s="13"/>
       <c r="E410" s="13"/>
     </row>
@@ -8868,7 +9030,9 @@
       <c r="B411" s="40" t="n">
         <v>31</v>
       </c>
-      <c r="C411" s="84"/>
+      <c r="C411" s="84" t="n">
+        <v>386</v>
+      </c>
       <c r="D411" s="13"/>
       <c r="E411" s="13"/>
     </row>
@@ -8876,7 +9040,9 @@
       <c r="B412" s="40" t="n">
         <v>32</v>
       </c>
-      <c r="C412" s="84"/>
+      <c r="C412" s="84" t="n">
+        <v>366</v>
+      </c>
       <c r="D412" s="13"/>
       <c r="E412" s="13"/>
     </row>
@@ -8884,7 +9050,9 @@
       <c r="B413" s="40" t="n">
         <v>33</v>
       </c>
-      <c r="C413" s="84"/>
+      <c r="C413" s="84" t="n">
+        <v>399</v>
+      </c>
       <c r="D413" s="13"/>
       <c r="E413" s="13"/>
     </row>
@@ -8892,7 +9060,9 @@
       <c r="B414" s="40" t="n">
         <v>34</v>
       </c>
-      <c r="C414" s="84"/>
+      <c r="C414" s="84" t="n">
+        <v>374</v>
+      </c>
       <c r="D414" s="13"/>
       <c r="E414" s="13"/>
     </row>
@@ -8900,7 +9070,9 @@
       <c r="B415" s="40" t="n">
         <v>35</v>
       </c>
-      <c r="C415" s="84"/>
+      <c r="C415" s="84" t="n">
+        <v>315</v>
+      </c>
       <c r="D415" s="13"/>
       <c r="E415" s="13"/>
     </row>
@@ -8908,7 +9080,9 @@
       <c r="B416" s="40" t="n">
         <v>36</v>
       </c>
-      <c r="C416" s="84"/>
+      <c r="C416" s="84" t="n">
+        <v>253</v>
+      </c>
       <c r="D416" s="13"/>
       <c r="E416" s="13"/>
     </row>
@@ -8916,7 +9090,9 @@
       <c r="B417" s="40" t="n">
         <v>37</v>
       </c>
-      <c r="C417" s="84"/>
+      <c r="C417" s="84" t="n">
+        <v>209</v>
+      </c>
       <c r="D417" s="13"/>
       <c r="E417" s="13"/>
     </row>
@@ -8924,7 +9100,9 @@
       <c r="B418" s="40" t="n">
         <v>38</v>
       </c>
-      <c r="C418" s="84"/>
+      <c r="C418" s="84" t="n">
+        <v>152</v>
+      </c>
       <c r="D418" s="13"/>
       <c r="E418" s="13"/>
     </row>
@@ -8932,7 +9110,9 @@
       <c r="B419" s="40" t="n">
         <v>39</v>
       </c>
-      <c r="C419" s="84"/>
+      <c r="C419" s="84" t="n">
+        <v>118</v>
+      </c>
       <c r="D419" s="13"/>
       <c r="E419" s="13"/>
     </row>
@@ -8940,7 +9120,9 @@
       <c r="B420" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="C420" s="84"/>
+      <c r="C420" s="84" t="n">
+        <v>64</v>
+      </c>
       <c r="D420" s="13"/>
       <c r="E420" s="13"/>
     </row>
@@ -8948,7 +9130,9 @@
       <c r="B421" s="40" t="n">
         <v>41</v>
       </c>
-      <c r="C421" s="84"/>
+      <c r="C421" s="84" t="n">
+        <v>34</v>
+      </c>
       <c r="D421" s="13"/>
       <c r="E421" s="13"/>
     </row>
@@ -8956,7 +9140,9 @@
       <c r="B422" s="40" t="n">
         <v>42</v>
       </c>
-      <c r="C422" s="84"/>
+      <c r="C422" s="84" t="n">
+        <v>17</v>
+      </c>
       <c r="D422" s="13"/>
       <c r="E422" s="13"/>
     </row>
@@ -8964,7 +9150,9 @@
       <c r="B423" s="40" t="n">
         <v>43</v>
       </c>
-      <c r="C423" s="84"/>
+      <c r="C423" s="84" t="n">
+        <v>7</v>
+      </c>
       <c r="D423" s="13"/>
       <c r="E423" s="13"/>
     </row>
@@ -8972,7 +9160,9 @@
       <c r="B424" s="40" t="n">
         <v>44</v>
       </c>
-      <c r="C424" s="84"/>
+      <c r="C424" s="84" t="n">
+        <v>2</v>
+      </c>
       <c r="D424" s="13"/>
       <c r="E424" s="13"/>
     </row>
@@ -8980,7 +9170,9 @@
       <c r="B425" s="40" t="n">
         <v>45</v>
       </c>
-      <c r="C425" s="84"/>
+      <c r="C425" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D425" s="13"/>
       <c r="E425" s="13"/>
     </row>
@@ -8988,7 +9180,9 @@
       <c r="B426" s="40" t="n">
         <v>46</v>
       </c>
-      <c r="C426" s="84"/>
+      <c r="C426" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D426" s="13"/>
       <c r="E426" s="13"/>
     </row>
@@ -8996,7 +9190,9 @@
       <c r="B427" s="40" t="n">
         <v>47</v>
       </c>
-      <c r="C427" s="84"/>
+      <c r="C427" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D427" s="13"/>
       <c r="E427" s="13"/>
     </row>
@@ -9004,7 +9200,9 @@
       <c r="B428" s="40" t="n">
         <v>48</v>
       </c>
-      <c r="C428" s="84"/>
+      <c r="C428" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D428" s="13"/>
       <c r="E428" s="13"/>
     </row>
@@ -9012,7 +9210,9 @@
       <c r="B429" s="40" t="n">
         <v>49</v>
       </c>
-      <c r="C429" s="84"/>
+      <c r="C429" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D429" s="13"/>
       <c r="E429" s="13"/>
     </row>
@@ -9020,7 +9220,9 @@
       <c r="B430" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="C430" s="84"/>
+      <c r="C430" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D430" s="13"/>
       <c r="E430" s="13"/>
     </row>
@@ -9028,7 +9230,9 @@
       <c r="B431" s="40" t="n">
         <v>51</v>
       </c>
-      <c r="C431" s="84"/>
+      <c r="C431" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D431" s="13"/>
       <c r="E431" s="13"/>
     </row>
@@ -9036,7 +9240,9 @@
       <c r="B432" s="40" t="n">
         <v>52</v>
       </c>
-      <c r="C432" s="84"/>
+      <c r="C432" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D432" s="13"/>
       <c r="E432" s="13"/>
     </row>
@@ -9044,7 +9250,9 @@
       <c r="B433" s="40" t="n">
         <v>53</v>
       </c>
-      <c r="C433" s="84"/>
+      <c r="C433" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D433" s="13"/>
       <c r="E433" s="13"/>
     </row>
@@ -9052,7 +9260,9 @@
       <c r="B434" s="40" t="n">
         <v>54</v>
       </c>
-      <c r="C434" s="84"/>
+      <c r="C434" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D434" s="13"/>
       <c r="E434" s="13"/>
     </row>
@@ -9060,7 +9270,9 @@
       <c r="B435" s="40" t="n">
         <v>55</v>
       </c>
-      <c r="C435" s="84"/>
+      <c r="C435" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D435" s="13"/>
       <c r="E435" s="13"/>
     </row>
@@ -9068,7 +9280,9 @@
       <c r="B436" s="40" t="n">
         <v>56</v>
       </c>
-      <c r="C436" s="84"/>
+      <c r="C436" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D436" s="13"/>
       <c r="E436" s="13"/>
     </row>
@@ -9076,7 +9290,9 @@
       <c r="B437" s="40" t="n">
         <v>57</v>
       </c>
-      <c r="C437" s="84"/>
+      <c r="C437" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D437" s="13"/>
       <c r="E437" s="13"/>
     </row>
@@ -9084,7 +9300,9 @@
       <c r="B438" s="40" t="n">
         <v>58</v>
       </c>
-      <c r="C438" s="84"/>
+      <c r="C438" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D438" s="13"/>
       <c r="E438" s="13"/>
     </row>
@@ -9092,7 +9310,9 @@
       <c r="B439" s="40" t="n">
         <v>59</v>
       </c>
-      <c r="C439" s="84"/>
+      <c r="C439" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D439" s="13"/>
       <c r="E439" s="13"/>
     </row>
@@ -9100,7 +9320,9 @@
       <c r="B440" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="C440" s="84"/>
+      <c r="C440" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D440" s="13"/>
       <c r="E440" s="13"/>
     </row>
@@ -9108,7 +9330,9 @@
       <c r="B441" s="40" t="n">
         <v>61</v>
       </c>
-      <c r="C441" s="84"/>
+      <c r="C441" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D441" s="13"/>
       <c r="E441" s="13"/>
     </row>
@@ -9116,7 +9340,9 @@
       <c r="B442" s="40" t="n">
         <v>62</v>
       </c>
-      <c r="C442" s="84"/>
+      <c r="C442" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D442" s="13"/>
       <c r="E442" s="13"/>
     </row>
@@ -9124,7 +9350,9 @@
       <c r="B443" s="40" t="n">
         <v>63</v>
       </c>
-      <c r="C443" s="84"/>
+      <c r="C443" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D443" s="13"/>
       <c r="E443" s="13"/>
     </row>
@@ -9132,7 +9360,9 @@
       <c r="B444" s="40" t="n">
         <v>64</v>
       </c>
-      <c r="C444" s="84"/>
+      <c r="C444" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D444" s="13"/>
       <c r="E444" s="13"/>
     </row>
@@ -9140,7 +9370,9 @@
       <c r="B445" s="40" t="n">
         <v>65</v>
       </c>
-      <c r="C445" s="84"/>
+      <c r="C445" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D445" s="13"/>
       <c r="E445" s="13"/>
     </row>
@@ -9148,7 +9380,9 @@
       <c r="B446" s="40" t="n">
         <v>66</v>
       </c>
-      <c r="C446" s="84"/>
+      <c r="C446" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D446" s="13"/>
       <c r="E446" s="13"/>
     </row>
@@ -9156,7 +9390,9 @@
       <c r="B447" s="40" t="n">
         <v>67</v>
       </c>
-      <c r="C447" s="84"/>
+      <c r="C447" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D447" s="13"/>
       <c r="E447" s="13"/>
     </row>
@@ -9164,7 +9400,9 @@
       <c r="B448" s="40" t="n">
         <v>68</v>
       </c>
-      <c r="C448" s="84"/>
+      <c r="C448" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D448" s="13"/>
       <c r="E448" s="13"/>
     </row>
@@ -9172,7 +9410,9 @@
       <c r="B449" s="40" t="n">
         <v>69</v>
       </c>
-      <c r="C449" s="84"/>
+      <c r="C449" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D449" s="13"/>
       <c r="E449" s="13"/>
     </row>
@@ -9180,7 +9420,9 @@
       <c r="B450" s="40" t="n">
         <v>70</v>
       </c>
-      <c r="C450" s="84"/>
+      <c r="C450" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D450" s="13"/>
       <c r="E450" s="13"/>
     </row>
@@ -9188,7 +9430,9 @@
       <c r="B451" s="40" t="n">
         <v>71</v>
       </c>
-      <c r="C451" s="84"/>
+      <c r="C451" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D451" s="13"/>
       <c r="E451" s="13"/>
     </row>
@@ -9196,7 +9440,9 @@
       <c r="B452" s="40" t="n">
         <v>72</v>
       </c>
-      <c r="C452" s="84"/>
+      <c r="C452" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D452" s="13"/>
       <c r="E452" s="13"/>
     </row>
@@ -9204,7 +9450,9 @@
       <c r="B453" s="40" t="n">
         <v>73</v>
       </c>
-      <c r="C453" s="84"/>
+      <c r="C453" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D453" s="13"/>
       <c r="E453" s="13"/>
     </row>
@@ -9212,7 +9460,9 @@
       <c r="B454" s="40" t="n">
         <v>74</v>
       </c>
-      <c r="C454" s="84"/>
+      <c r="C454" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D454" s="13"/>
       <c r="E454" s="13"/>
     </row>
@@ -9220,7 +9470,9 @@
       <c r="B455" s="40" t="n">
         <v>75</v>
       </c>
-      <c r="C455" s="84"/>
+      <c r="C455" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D455" s="13"/>
       <c r="E455" s="13"/>
     </row>
@@ -9228,7 +9480,9 @@
       <c r="B456" s="40" t="n">
         <v>76</v>
       </c>
-      <c r="C456" s="84"/>
+      <c r="C456" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D456" s="13"/>
       <c r="E456" s="13"/>
     </row>
@@ -9236,7 +9490,9 @@
       <c r="B457" s="40" t="n">
         <v>77</v>
       </c>
-      <c r="C457" s="84"/>
+      <c r="C457" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D457" s="13"/>
       <c r="E457" s="13"/>
     </row>
@@ -9244,7 +9500,9 @@
       <c r="B458" s="40" t="n">
         <v>78</v>
       </c>
-      <c r="C458" s="84"/>
+      <c r="C458" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D458" s="13"/>
       <c r="E458" s="13"/>
     </row>
@@ -9252,7 +9510,9 @@
       <c r="B459" s="40" t="n">
         <v>79</v>
       </c>
-      <c r="C459" s="84"/>
+      <c r="C459" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D459" s="13"/>
       <c r="E459" s="13"/>
     </row>
@@ -9260,7 +9520,9 @@
       <c r="B460" s="40" t="n">
         <v>80</v>
       </c>
-      <c r="C460" s="84"/>
+      <c r="C460" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D460" s="13"/>
       <c r="E460" s="13"/>
     </row>
@@ -9268,7 +9530,9 @@
       <c r="B461" s="40" t="n">
         <v>81</v>
       </c>
-      <c r="C461" s="84"/>
+      <c r="C461" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D461" s="13"/>
       <c r="E461" s="13"/>
     </row>
@@ -9276,7 +9540,9 @@
       <c r="B462" s="40" t="n">
         <v>82</v>
       </c>
-      <c r="C462" s="84"/>
+      <c r="C462" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D462" s="13"/>
       <c r="E462" s="13"/>
     </row>
@@ -9284,7 +9550,9 @@
       <c r="B463" s="40" t="n">
         <v>83</v>
       </c>
-      <c r="C463" s="84"/>
+      <c r="C463" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D463" s="13"/>
       <c r="E463" s="13"/>
     </row>
@@ -9292,7 +9560,9 @@
       <c r="B464" s="40" t="n">
         <v>84</v>
       </c>
-      <c r="C464" s="84"/>
+      <c r="C464" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D464" s="13"/>
       <c r="E464" s="13"/>
     </row>
@@ -9300,7 +9570,9 @@
       <c r="B465" s="40" t="n">
         <v>85</v>
       </c>
-      <c r="C465" s="84"/>
+      <c r="C465" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D465" s="13"/>
       <c r="E465" s="13"/>
     </row>
@@ -9308,7 +9580,9 @@
       <c r="B466" s="40" t="n">
         <v>86</v>
       </c>
-      <c r="C466" s="84"/>
+      <c r="C466" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D466" s="13"/>
       <c r="E466" s="13"/>
     </row>
@@ -9316,7 +9590,9 @@
       <c r="B467" s="40" t="n">
         <v>87</v>
       </c>
-      <c r="C467" s="84"/>
+      <c r="C467" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D467" s="13"/>
       <c r="E467" s="13"/>
     </row>
@@ -9324,7 +9600,9 @@
       <c r="B468" s="40" t="n">
         <v>88</v>
       </c>
-      <c r="C468" s="84"/>
+      <c r="C468" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D468" s="13"/>
       <c r="E468" s="13"/>
     </row>
@@ -9332,7 +9610,9 @@
       <c r="B469" s="40" t="n">
         <v>89</v>
       </c>
-      <c r="C469" s="84"/>
+      <c r="C469" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D469" s="13"/>
       <c r="E469" s="13"/>
     </row>
@@ -9340,7 +9620,9 @@
       <c r="B470" s="40" t="n">
         <v>90</v>
       </c>
-      <c r="C470" s="84"/>
+      <c r="C470" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D470" s="13"/>
       <c r="E470" s="13"/>
     </row>
@@ -9348,7 +9630,9 @@
       <c r="B471" s="40" t="n">
         <v>91</v>
       </c>
-      <c r="C471" s="84"/>
+      <c r="C471" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D471" s="13"/>
       <c r="E471" s="13"/>
     </row>
@@ -9356,7 +9640,9 @@
       <c r="B472" s="40" t="n">
         <v>92</v>
       </c>
-      <c r="C472" s="84"/>
+      <c r="C472" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D472" s="13"/>
       <c r="E472" s="13"/>
     </row>
@@ -9364,7 +9650,9 @@
       <c r="B473" s="40" t="n">
         <v>93</v>
       </c>
-      <c r="C473" s="84"/>
+      <c r="C473" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D473" s="13"/>
       <c r="E473" s="13"/>
     </row>
@@ -9372,7 +9660,9 @@
       <c r="B474" s="40" t="n">
         <v>94</v>
       </c>
-      <c r="C474" s="84"/>
+      <c r="C474" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D474" s="13"/>
       <c r="E474" s="13"/>
     </row>
@@ -9380,7 +9670,9 @@
       <c r="B475" s="40" t="n">
         <v>95</v>
       </c>
-      <c r="C475" s="84"/>
+      <c r="C475" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D475" s="13"/>
       <c r="E475" s="13"/>
     </row>
@@ -9388,7 +9680,9 @@
       <c r="B476" s="40" t="n">
         <v>96</v>
       </c>
-      <c r="C476" s="84"/>
+      <c r="C476" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D476" s="13"/>
       <c r="E476" s="13"/>
     </row>
@@ -9396,7 +9690,9 @@
       <c r="B477" s="40" t="n">
         <v>97</v>
       </c>
-      <c r="C477" s="84"/>
+      <c r="C477" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D477" s="13"/>
       <c r="E477" s="13" t="s">
         <v>201</v>
@@ -9406,11 +9702,13 @@
       <c r="B478" s="47" t="n">
         <v>98</v>
       </c>
-      <c r="C478" s="100"/>
+      <c r="C478" s="100" t="n">
+        <v>0</v>
+      </c>
       <c r="D478" s="13"/>
       <c r="E478" s="13" t="n">
         <f aca="false">SUM(C330:C478)</f>
-        <v>0</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/input/RESULTS5-2A-EnergyPlus-9.0.1.xlsx
+++ b/input/RESULTS5-2A-EnergyPlus-9.0.1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
   <si>
     <t xml:space="preserve">STANDARD 140 OUTPUT FORM - RESULTS    </t>
   </si>
@@ -2035,7 +2035,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2043,7 +2043,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2123,19 +2123,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2627,11 +2627,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A327" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C330" activeCellId="0" sqref="C330"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C178" activeCellId="0" sqref="C178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -5391,19 +5391,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="C178" s="105"/>
-      <c r="D178" s="106"/>
-      <c r="E178" s="68"/>
-      <c r="F178" s="106"/>
-      <c r="G178" s="106"/>
-      <c r="H178" s="107"/>
-      <c r="I178" s="68"/>
-      <c r="J178" s="106"/>
-      <c r="K178" s="108"/>
+      <c r="C178" s="105" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D178" s="106" t="n">
+        <v>-37.98</v>
+      </c>
+      <c r="E178" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" s="106" t="n">
+        <v>31</v>
+      </c>
+      <c r="G178" s="106" t="n">
+        <v>24</v>
+      </c>
+      <c r="H178" s="107" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="I178" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J178" s="106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K178" s="108" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="13" t="s">
